--- a/Analysis/figTbl_guidebook_simplified/tbl_quintile_ERCpv.xlsx
+++ b/Analysis/figTbl_guidebook_simplified/tbl_quintile_ERCpv.xlsx
@@ -302,7 +302,7 @@
         <v>-34.672882498397826</v>
       </c>
       <c r="P2" t="n">
-        <v>-16.97432812876467</v>
+        <v>-16.562264468084326</v>
       </c>
     </row>
     <row r="3">
@@ -352,7 +352,7 @@
         <v>-36.585965878090434</v>
       </c>
       <c r="P3" t="n">
-        <v>-15.746984605063808</v>
+        <v>-15.99798541644733</v>
       </c>
     </row>
     <row r="4">
@@ -402,7 +402,7 @@
         <v>-36.49131685168257</v>
       </c>
       <c r="P4" t="n">
-        <v>-15.238903683003702</v>
+        <v>-15.036693341759023</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>-29.6845756489794</v>
       </c>
       <c r="P5" t="n">
-        <v>-9.078508063507979</v>
+        <v>-12.384135304263815</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>-11.91834919073742</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.634893347047567</v>
+        <v>-8.34980233394434</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +613,7 @@
         <v>6.5314308471231766E7</v>
       </c>
       <c r="P2" t="n">
-        <v>8.664440102410582E7</v>
+        <v>8.397138579050517E7</v>
       </c>
     </row>
     <row r="3">
@@ -663,7 +663,7 @@
         <v>5.1102380671432905E7</v>
       </c>
       <c r="P3" t="n">
-        <v>7.132296450487491E7</v>
+        <v>6.782935074598949E7</v>
       </c>
     </row>
     <row r="4">
@@ -713,7 +713,7 @@
         <v>4.417489174461754E7</v>
       </c>
       <c r="P4" t="n">
-        <v>6.3976651528992824E7</v>
+        <v>5.911340277953741E7</v>
       </c>
     </row>
     <row r="5">
@@ -763,7 +763,7 @@
         <v>3.881742310471402E7</v>
       </c>
       <c r="P5" t="n">
-        <v>3.763121795465862E7</v>
+        <v>4.8098700705714524E7</v>
       </c>
     </row>
     <row r="6">
@@ -813,7 +813,7 @@
         <v>3.410829122251755E7</v>
       </c>
       <c r="P6" t="n">
-        <v>3.0452272152074195E7</v>
+        <v>3.573589729826751E7</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>-38.86967233695551</v>
       </c>
       <c r="P2" t="n">
-        <v>-22.190612605001505</v>
+        <v>-21.93720165851549</v>
       </c>
     </row>
     <row r="3">
@@ -974,7 +974,7 @@
         <v>-35.74148058445681</v>
       </c>
       <c r="P3" t="n">
-        <v>-20.698695021702513</v>
+        <v>-19.68102947227117</v>
       </c>
     </row>
     <row r="4">
@@ -1024,7 +1024,7 @@
         <v>-29.41826996924511</v>
       </c>
       <c r="P4" t="n">
-        <v>-16.00106311122894</v>
+        <v>-16.82388067476124</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1074,7 @@
         <v>-21.208245897230437</v>
       </c>
       <c r="P5" t="n">
-        <v>-8.132968550673992</v>
+        <v>-14.3307421990917</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1124,7 @@
         <v>2.039811107908618</v>
       </c>
       <c r="P6" t="n">
-        <v>-9.74607303978134</v>
+        <v>-10.23567743669176</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1235,7 @@
         <v>8.373207189752886E7</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1174171667284177E8</v>
+        <v>1.061936150051862E8</v>
       </c>
     </row>
     <row r="3">
@@ -1285,7 +1285,7 @@
         <v>6.762899899484235E7</v>
       </c>
       <c r="P3" t="n">
-        <v>8.397708132658312E7</v>
+        <v>8.436004526492967E7</v>
       </c>
     </row>
     <row r="4">
@@ -1335,7 +1335,7 @@
         <v>5.880481247771155E7</v>
       </c>
       <c r="P4" t="n">
-        <v>6.604696046138817E7</v>
+        <v>6.973550997642756E7</v>
       </c>
     </row>
     <row r="5">
@@ -1385,7 +1385,7 @@
         <v>5.234429905135162E7</v>
       </c>
       <c r="P5" t="n">
-        <v>4.702307752369E7</v>
+        <v>5.661934784105556E7</v>
       </c>
     </row>
     <row r="6">
@@ -1435,7 +1435,7 @@
         <v>4.663028646520062E7</v>
       </c>
       <c r="P6" t="n">
-        <v>3.988670062887284E7</v>
+        <v>4.085454155780506E7</v>
       </c>
     </row>
   </sheetData>
